--- a/rates/public/Diciembre 2024.xlsx
+++ b/rates/public/Diciembre 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\tarifas\rates\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A9ACC7-8D5B-4B25-BBE5-2FC25D4E9966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6341F01-AEEA-48DC-8C4D-10E1AAAA72B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3565" uniqueCount="61">
   <si>
     <t>PERIODO</t>
   </si>
@@ -183,6 +183,30 @@
   <si>
     <t>OK</t>
   </si>
+  <si>
+    <t>ESSC</t>
+  </si>
+  <si>
+    <t>EPMC</t>
+  </si>
+  <si>
+    <t>ENDC</t>
+  </si>
+  <si>
+    <t>EMSC</t>
+  </si>
+  <si>
+    <t>EDQC</t>
+  </si>
+  <si>
+    <t>CHCC</t>
+  </si>
+  <si>
+    <t>CETC</t>
+  </si>
+  <si>
+    <t>EPSC</t>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +250,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,11 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P518"/>
+  <dimension ref="A1:P595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A510" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M518" sqref="M518"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N590" sqref="N590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26913,6 +26939,3933 @@
         <v>52</v>
       </c>
     </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>16</v>
+      </c>
+      <c r="B519" t="s">
+        <v>53</v>
+      </c>
+      <c r="C519" t="s">
+        <v>43</v>
+      </c>
+      <c r="D519" t="s">
+        <v>22</v>
+      </c>
+      <c r="E519" s="2">
+        <v>1</v>
+      </c>
+      <c r="F519">
+        <v>401.59</v>
+      </c>
+      <c r="G519">
+        <v>58.19</v>
+      </c>
+      <c r="H519">
+        <v>299.74</v>
+      </c>
+      <c r="I519">
+        <v>84.69</v>
+      </c>
+      <c r="J519">
+        <v>127.32</v>
+      </c>
+      <c r="K519">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L519">
+        <v>976.64</v>
+      </c>
+      <c r="M519">
+        <v>976.64</v>
+      </c>
+      <c r="N519" s="1">
+        <f t="shared" ref="N519:N577" si="9">G519-58.1922</f>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O519" t="s">
+        <v>52</v>
+      </c>
+      <c r="P519" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>16</v>
+      </c>
+      <c r="B520" t="s">
+        <v>53</v>
+      </c>
+      <c r="C520" t="s">
+        <v>43</v>
+      </c>
+      <c r="D520" t="s">
+        <v>24</v>
+      </c>
+      <c r="E520" s="2">
+        <v>1</v>
+      </c>
+      <c r="F520">
+        <v>401.59</v>
+      </c>
+      <c r="G520">
+        <v>58.19</v>
+      </c>
+      <c r="H520">
+        <v>257.8</v>
+      </c>
+      <c r="I520">
+        <v>84.69</v>
+      </c>
+      <c r="J520">
+        <v>127.32</v>
+      </c>
+      <c r="K520">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L520">
+        <v>834.69</v>
+      </c>
+      <c r="M520">
+        <v>834.69</v>
+      </c>
+      <c r="N520" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O520" t="s">
+        <v>52</v>
+      </c>
+      <c r="P520" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A521" t="s">
+        <v>16</v>
+      </c>
+      <c r="B521" t="s">
+        <v>53</v>
+      </c>
+      <c r="C521" t="s">
+        <v>43</v>
+      </c>
+      <c r="D521" t="s">
+        <v>23</v>
+      </c>
+      <c r="E521" s="2">
+        <v>1</v>
+      </c>
+      <c r="F521">
+        <v>401.59</v>
+      </c>
+      <c r="G521">
+        <v>58.19</v>
+      </c>
+      <c r="H521">
+        <v>215.85</v>
+      </c>
+      <c r="I521">
+        <v>84.69</v>
+      </c>
+      <c r="J521">
+        <v>127.32</v>
+      </c>
+      <c r="K521">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L521">
+        <v>892.75</v>
+      </c>
+      <c r="M521">
+        <v>892.75</v>
+      </c>
+      <c r="N521" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O521" t="s">
+        <v>52</v>
+      </c>
+      <c r="P521" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A522" t="s">
+        <v>16</v>
+      </c>
+      <c r="B522" t="s">
+        <v>53</v>
+      </c>
+      <c r="C522" t="s">
+        <v>43</v>
+      </c>
+      <c r="D522" t="s">
+        <v>27</v>
+      </c>
+      <c r="E522" s="2">
+        <v>2</v>
+      </c>
+      <c r="F522">
+        <v>401.59</v>
+      </c>
+      <c r="G522">
+        <v>58.19</v>
+      </c>
+      <c r="H522">
+        <v>194.6</v>
+      </c>
+      <c r="I522">
+        <v>30.18</v>
+      </c>
+      <c r="J522">
+        <v>110.7</v>
+      </c>
+      <c r="K522">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L522">
+        <v>800.37</v>
+      </c>
+      <c r="M522">
+        <v>800.37</v>
+      </c>
+      <c r="N522" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O522" t="s">
+        <v>52</v>
+      </c>
+      <c r="P522" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A523" t="s">
+        <v>16</v>
+      </c>
+      <c r="B523" t="s">
+        <v>53</v>
+      </c>
+      <c r="C523" t="s">
+        <v>43</v>
+      </c>
+      <c r="D523" t="s">
+        <v>27</v>
+      </c>
+      <c r="E523" s="2">
+        <v>3</v>
+      </c>
+      <c r="F523">
+        <v>401.59</v>
+      </c>
+      <c r="G523">
+        <v>58.19</v>
+      </c>
+      <c r="H523">
+        <v>89.37</v>
+      </c>
+      <c r="I523">
+        <v>22.66</v>
+      </c>
+      <c r="J523">
+        <v>113.31</v>
+      </c>
+      <c r="K523">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L523">
+        <v>690.22</v>
+      </c>
+      <c r="M523">
+        <v>690.22</v>
+      </c>
+      <c r="N523" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O523" t="s">
+        <v>52</v>
+      </c>
+      <c r="P523" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A524" t="s">
+        <v>16</v>
+      </c>
+      <c r="B524" t="s">
+        <v>54</v>
+      </c>
+      <c r="C524" t="s">
+        <v>25</v>
+      </c>
+      <c r="D524" t="s">
+        <v>22</v>
+      </c>
+      <c r="E524" s="2">
+        <v>1</v>
+      </c>
+      <c r="F524">
+        <v>345.07</v>
+      </c>
+      <c r="G524">
+        <v>58.19</v>
+      </c>
+      <c r="H524">
+        <v>280.72000000000003</v>
+      </c>
+      <c r="I524">
+        <v>67.72</v>
+      </c>
+      <c r="J524">
+        <v>25.2</v>
+      </c>
+      <c r="K524">
+        <v>4.96</v>
+      </c>
+      <c r="L524">
+        <v>812.67</v>
+      </c>
+      <c r="M524">
+        <v>812.67</v>
+      </c>
+      <c r="N524" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O524" t="s">
+        <v>52</v>
+      </c>
+      <c r="P524" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A525" t="s">
+        <v>16</v>
+      </c>
+      <c r="B525" t="s">
+        <v>54</v>
+      </c>
+      <c r="C525" t="s">
+        <v>25</v>
+      </c>
+      <c r="D525" t="s">
+        <v>24</v>
+      </c>
+      <c r="E525" s="2">
+        <v>1</v>
+      </c>
+      <c r="F525">
+        <v>345.07</v>
+      </c>
+      <c r="G525">
+        <v>58.19</v>
+      </c>
+      <c r="H525">
+        <v>257.83</v>
+      </c>
+      <c r="I525">
+        <v>67.72</v>
+      </c>
+      <c r="J525">
+        <v>25.2</v>
+      </c>
+      <c r="K525">
+        <v>4.96</v>
+      </c>
+      <c r="L525">
+        <v>789.78</v>
+      </c>
+      <c r="M525">
+        <v>789.78</v>
+      </c>
+      <c r="N525" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O525" t="s">
+        <v>52</v>
+      </c>
+      <c r="P525" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A526" t="s">
+        <v>16</v>
+      </c>
+      <c r="B526" t="s">
+        <v>54</v>
+      </c>
+      <c r="C526" t="s">
+        <v>25</v>
+      </c>
+      <c r="D526" t="s">
+        <v>23</v>
+      </c>
+      <c r="E526" s="2">
+        <v>1</v>
+      </c>
+      <c r="F526">
+        <v>345.07</v>
+      </c>
+      <c r="G526">
+        <v>58.19</v>
+      </c>
+      <c r="H526">
+        <v>234.95</v>
+      </c>
+      <c r="I526">
+        <v>67.72</v>
+      </c>
+      <c r="J526">
+        <v>25.2</v>
+      </c>
+      <c r="K526">
+        <v>4.96</v>
+      </c>
+      <c r="L526">
+        <v>766.9</v>
+      </c>
+      <c r="M526">
+        <v>766.9</v>
+      </c>
+      <c r="N526" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O526" t="s">
+        <v>52</v>
+      </c>
+      <c r="P526" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A527" t="s">
+        <v>16</v>
+      </c>
+      <c r="B527" t="s">
+        <v>54</v>
+      </c>
+      <c r="C527" t="s">
+        <v>25</v>
+      </c>
+      <c r="D527" t="s">
+        <v>27</v>
+      </c>
+      <c r="E527" s="2">
+        <v>2</v>
+      </c>
+      <c r="F527">
+        <v>345.07</v>
+      </c>
+      <c r="G527">
+        <v>58.19</v>
+      </c>
+      <c r="H527">
+        <v>174.68</v>
+      </c>
+      <c r="I527">
+        <v>22.51</v>
+      </c>
+      <c r="J527">
+        <v>25.2</v>
+      </c>
+      <c r="K527">
+        <v>4.96</v>
+      </c>
+      <c r="L527">
+        <v>673.27</v>
+      </c>
+      <c r="M527">
+        <v>673.27</v>
+      </c>
+      <c r="N527" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O527" t="s">
+        <v>52</v>
+      </c>
+      <c r="P527" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A528" t="s">
+        <v>16</v>
+      </c>
+      <c r="B528" t="s">
+        <v>54</v>
+      </c>
+      <c r="C528" t="s">
+        <v>25</v>
+      </c>
+      <c r="D528" t="s">
+        <v>27</v>
+      </c>
+      <c r="E528" s="2">
+        <v>3</v>
+      </c>
+      <c r="F528">
+        <v>345.07</v>
+      </c>
+      <c r="G528">
+        <v>58.19</v>
+      </c>
+      <c r="H528">
+        <v>117.64</v>
+      </c>
+      <c r="I528">
+        <v>21.9</v>
+      </c>
+      <c r="J528">
+        <v>25.2</v>
+      </c>
+      <c r="K528">
+        <v>4.96</v>
+      </c>
+      <c r="L528">
+        <v>605.17999999999995</v>
+      </c>
+      <c r="M528">
+        <v>605.17999999999995</v>
+      </c>
+      <c r="N528" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O528" t="s">
+        <v>52</v>
+      </c>
+      <c r="P528" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A529" t="s">
+        <v>16</v>
+      </c>
+      <c r="B529" t="s">
+        <v>54</v>
+      </c>
+      <c r="C529" t="s">
+        <v>45</v>
+      </c>
+      <c r="D529" t="s">
+        <v>22</v>
+      </c>
+      <c r="E529" s="2">
+        <v>1</v>
+      </c>
+      <c r="F529">
+        <v>346.87</v>
+      </c>
+      <c r="G529">
+        <v>58.19</v>
+      </c>
+      <c r="H529">
+        <v>264.32</v>
+      </c>
+      <c r="I529">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="J529">
+        <v>28.55</v>
+      </c>
+      <c r="K529">
+        <v>4.96</v>
+      </c>
+      <c r="L529">
+        <v>823.22</v>
+      </c>
+      <c r="M529">
+        <v>823.22</v>
+      </c>
+      <c r="N529" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O529" t="s">
+        <v>52</v>
+      </c>
+      <c r="P529" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A530" t="s">
+        <v>16</v>
+      </c>
+      <c r="B530" t="s">
+        <v>54</v>
+      </c>
+      <c r="C530" t="s">
+        <v>45</v>
+      </c>
+      <c r="D530" t="s">
+        <v>24</v>
+      </c>
+      <c r="E530" s="2">
+        <v>1</v>
+      </c>
+      <c r="F530">
+        <v>346.87</v>
+      </c>
+      <c r="G530">
+        <v>58.19</v>
+      </c>
+      <c r="H530">
+        <v>229.7</v>
+      </c>
+      <c r="I530">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="J530">
+        <v>28.55</v>
+      </c>
+      <c r="K530">
+        <v>4.96</v>
+      </c>
+      <c r="L530">
+        <v>788.6</v>
+      </c>
+      <c r="M530">
+        <v>788.6</v>
+      </c>
+      <c r="N530" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O530" t="s">
+        <v>52</v>
+      </c>
+      <c r="P530" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A531" t="s">
+        <v>16</v>
+      </c>
+      <c r="B531" t="s">
+        <v>54</v>
+      </c>
+      <c r="C531" t="s">
+        <v>45</v>
+      </c>
+      <c r="D531" t="s">
+        <v>23</v>
+      </c>
+      <c r="E531" s="2">
+        <v>1</v>
+      </c>
+      <c r="F531">
+        <v>346.87</v>
+      </c>
+      <c r="G531">
+        <v>58.19</v>
+      </c>
+      <c r="H531">
+        <v>195.08</v>
+      </c>
+      <c r="I531">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="J531">
+        <v>28.55</v>
+      </c>
+      <c r="K531">
+        <v>4.96</v>
+      </c>
+      <c r="L531">
+        <v>753.98</v>
+      </c>
+      <c r="M531">
+        <v>753.98</v>
+      </c>
+      <c r="N531" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O531" t="s">
+        <v>52</v>
+      </c>
+      <c r="P531" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A532" t="s">
+        <v>16</v>
+      </c>
+      <c r="B532" t="s">
+        <v>54</v>
+      </c>
+      <c r="C532" t="s">
+        <v>45</v>
+      </c>
+      <c r="D532" t="s">
+        <v>27</v>
+      </c>
+      <c r="E532" s="2">
+        <v>2</v>
+      </c>
+      <c r="F532">
+        <v>346.87</v>
+      </c>
+      <c r="G532">
+        <v>58.19</v>
+      </c>
+      <c r="H532">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="I532">
+        <v>27.6</v>
+      </c>
+      <c r="J532">
+        <v>28.55</v>
+      </c>
+      <c r="K532">
+        <v>4.96</v>
+      </c>
+      <c r="L532">
+        <v>679.85</v>
+      </c>
+      <c r="M532">
+        <v>679.85</v>
+      </c>
+      <c r="N532" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O532" t="s">
+        <v>52</v>
+      </c>
+      <c r="P532" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A533" t="s">
+        <v>16</v>
+      </c>
+      <c r="B533" t="s">
+        <v>54</v>
+      </c>
+      <c r="C533" t="s">
+        <v>45</v>
+      </c>
+      <c r="D533" t="s">
+        <v>27</v>
+      </c>
+      <c r="E533" s="2">
+        <v>3</v>
+      </c>
+      <c r="F533">
+        <v>346.87</v>
+      </c>
+      <c r="G533">
+        <v>58.19</v>
+      </c>
+      <c r="H533">
+        <v>93.58</v>
+      </c>
+      <c r="I533">
+        <v>23.47</v>
+      </c>
+      <c r="J533">
+        <v>28.55</v>
+      </c>
+      <c r="K533">
+        <v>4.96</v>
+      </c>
+      <c r="L533">
+        <v>588.54</v>
+      </c>
+      <c r="M533">
+        <v>588.54</v>
+      </c>
+      <c r="N533" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O533" t="s">
+        <v>52</v>
+      </c>
+      <c r="P533" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A534" t="s">
+        <v>16</v>
+      </c>
+      <c r="B534" t="s">
+        <v>54</v>
+      </c>
+      <c r="C534" t="s">
+        <v>31</v>
+      </c>
+      <c r="D534" t="s">
+        <v>22</v>
+      </c>
+      <c r="E534" s="2">
+        <v>1</v>
+      </c>
+      <c r="F534">
+        <v>312.79000000000002</v>
+      </c>
+      <c r="G534">
+        <v>58.19</v>
+      </c>
+      <c r="H534">
+        <v>280.72000000000003</v>
+      </c>
+      <c r="I534">
+        <v>86.23</v>
+      </c>
+      <c r="J534">
+        <v>100.26</v>
+      </c>
+      <c r="K534">
+        <v>1.67</v>
+      </c>
+      <c r="L534">
+        <v>933.07</v>
+      </c>
+      <c r="M534">
+        <v>933.07</v>
+      </c>
+      <c r="N534" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O534" t="s">
+        <v>52</v>
+      </c>
+      <c r="P534" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A535" t="s">
+        <v>16</v>
+      </c>
+      <c r="B535" t="s">
+        <v>54</v>
+      </c>
+      <c r="C535" t="s">
+        <v>31</v>
+      </c>
+      <c r="D535" t="s">
+        <v>24</v>
+      </c>
+      <c r="E535" s="2">
+        <v>1</v>
+      </c>
+      <c r="F535">
+        <v>312.79000000000002</v>
+      </c>
+      <c r="G535">
+        <v>58.19</v>
+      </c>
+      <c r="H535">
+        <v>230.16</v>
+      </c>
+      <c r="I535">
+        <v>86.23</v>
+      </c>
+      <c r="J535">
+        <v>100.26</v>
+      </c>
+      <c r="K535">
+        <v>1.67</v>
+      </c>
+      <c r="L535">
+        <v>882.52</v>
+      </c>
+      <c r="M535">
+        <v>882.52</v>
+      </c>
+      <c r="N535" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O535" t="s">
+        <v>52</v>
+      </c>
+      <c r="P535" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A536" t="s">
+        <v>16</v>
+      </c>
+      <c r="B536" t="s">
+        <v>54</v>
+      </c>
+      <c r="C536" t="s">
+        <v>31</v>
+      </c>
+      <c r="D536" t="s">
+        <v>23</v>
+      </c>
+      <c r="E536" s="2">
+        <v>1</v>
+      </c>
+      <c r="F536">
+        <v>312.79000000000002</v>
+      </c>
+      <c r="G536">
+        <v>58.19</v>
+      </c>
+      <c r="H536">
+        <v>179.61</v>
+      </c>
+      <c r="I536">
+        <v>86.23</v>
+      </c>
+      <c r="J536">
+        <v>100.26</v>
+      </c>
+      <c r="K536">
+        <v>1.67</v>
+      </c>
+      <c r="L536">
+        <v>831.96</v>
+      </c>
+      <c r="M536">
+        <v>831.96</v>
+      </c>
+      <c r="N536" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O536" t="s">
+        <v>52</v>
+      </c>
+      <c r="P536" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A537" t="s">
+        <v>16</v>
+      </c>
+      <c r="B537" t="s">
+        <v>54</v>
+      </c>
+      <c r="C537" t="s">
+        <v>31</v>
+      </c>
+      <c r="D537" t="s">
+        <v>27</v>
+      </c>
+      <c r="E537" s="2">
+        <v>2</v>
+      </c>
+      <c r="F537">
+        <v>312.79000000000002</v>
+      </c>
+      <c r="G537">
+        <v>58.19</v>
+      </c>
+      <c r="H537">
+        <v>174.68</v>
+      </c>
+      <c r="I537">
+        <v>37.71</v>
+      </c>
+      <c r="J537">
+        <v>100.26</v>
+      </c>
+      <c r="K537">
+        <v>1.67</v>
+      </c>
+      <c r="L537">
+        <v>685.11</v>
+      </c>
+      <c r="M537">
+        <v>685.11</v>
+      </c>
+      <c r="N537" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O537" t="s">
+        <v>52</v>
+      </c>
+      <c r="P537" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A538" t="s">
+        <v>16</v>
+      </c>
+      <c r="B538" t="s">
+        <v>54</v>
+      </c>
+      <c r="C538" t="s">
+        <v>31</v>
+      </c>
+      <c r="D538" t="s">
+        <v>27</v>
+      </c>
+      <c r="E538" s="2">
+        <v>3</v>
+      </c>
+      <c r="F538">
+        <v>312.79000000000002</v>
+      </c>
+      <c r="G538">
+        <v>58.19</v>
+      </c>
+      <c r="H538">
+        <v>117.64</v>
+      </c>
+      <c r="I538">
+        <v>28.27</v>
+      </c>
+      <c r="J538">
+        <v>100.26</v>
+      </c>
+      <c r="K538">
+        <v>1.67</v>
+      </c>
+      <c r="L538">
+        <v>618.64</v>
+      </c>
+      <c r="M538">
+        <v>618.64</v>
+      </c>
+      <c r="N538" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O538" t="s">
+        <v>52</v>
+      </c>
+      <c r="P538" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A539" t="s">
+        <v>16</v>
+      </c>
+      <c r="B539" t="s">
+        <v>54</v>
+      </c>
+      <c r="C539" t="s">
+        <v>36</v>
+      </c>
+      <c r="D539" t="s">
+        <v>22</v>
+      </c>
+      <c r="E539" s="2">
+        <v>1</v>
+      </c>
+      <c r="F539">
+        <v>345.41</v>
+      </c>
+      <c r="G539">
+        <v>58.19</v>
+      </c>
+      <c r="H539">
+        <v>264.32</v>
+      </c>
+      <c r="I539">
+        <v>63.92</v>
+      </c>
+      <c r="J539">
+        <v>23.31</v>
+      </c>
+      <c r="K539">
+        <v>4.96</v>
+      </c>
+      <c r="L539">
+        <v>760.12</v>
+      </c>
+      <c r="M539">
+        <v>760.12</v>
+      </c>
+      <c r="N539" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O539" t="s">
+        <v>52</v>
+      </c>
+      <c r="P539" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A540" t="s">
+        <v>16</v>
+      </c>
+      <c r="B540" t="s">
+        <v>54</v>
+      </c>
+      <c r="C540" t="s">
+        <v>36</v>
+      </c>
+      <c r="D540" t="s">
+        <v>24</v>
+      </c>
+      <c r="E540" s="2">
+        <v>1</v>
+      </c>
+      <c r="F540">
+        <v>345.41</v>
+      </c>
+      <c r="G540">
+        <v>58.19</v>
+      </c>
+      <c r="H540">
+        <v>248.62</v>
+      </c>
+      <c r="I540">
+        <v>63.92</v>
+      </c>
+      <c r="J540">
+        <v>23.31</v>
+      </c>
+      <c r="K540">
+        <v>4.96</v>
+      </c>
+      <c r="L540">
+        <v>744.41</v>
+      </c>
+      <c r="M540">
+        <v>744.41</v>
+      </c>
+      <c r="N540" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O540" t="s">
+        <v>52</v>
+      </c>
+      <c r="P540" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A541" t="s">
+        <v>16</v>
+      </c>
+      <c r="B541" t="s">
+        <v>54</v>
+      </c>
+      <c r="C541" t="s">
+        <v>36</v>
+      </c>
+      <c r="D541" t="s">
+        <v>23</v>
+      </c>
+      <c r="E541" s="2">
+        <v>1</v>
+      </c>
+      <c r="F541">
+        <v>345.41</v>
+      </c>
+      <c r="G541">
+        <v>58.19</v>
+      </c>
+      <c r="H541">
+        <v>232.91</v>
+      </c>
+      <c r="I541">
+        <v>63.92</v>
+      </c>
+      <c r="J541">
+        <v>23.31</v>
+      </c>
+      <c r="K541">
+        <v>4.96</v>
+      </c>
+      <c r="L541">
+        <v>728.7</v>
+      </c>
+      <c r="M541">
+        <v>728.7</v>
+      </c>
+      <c r="N541" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O541" t="s">
+        <v>52</v>
+      </c>
+      <c r="P541" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A542" t="s">
+        <v>16</v>
+      </c>
+      <c r="B542" t="s">
+        <v>54</v>
+      </c>
+      <c r="C542" t="s">
+        <v>36</v>
+      </c>
+      <c r="D542" t="s">
+        <v>27</v>
+      </c>
+      <c r="E542" s="2">
+        <v>2</v>
+      </c>
+      <c r="F542">
+        <v>345.41</v>
+      </c>
+      <c r="G542">
+        <v>58.19</v>
+      </c>
+      <c r="H542">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="I542">
+        <v>27.47</v>
+      </c>
+      <c r="J542">
+        <v>23.31</v>
+      </c>
+      <c r="K542">
+        <v>4.96</v>
+      </c>
+      <c r="L542">
+        <v>613.14</v>
+      </c>
+      <c r="M542">
+        <v>613.14</v>
+      </c>
+      <c r="N542" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O542" t="s">
+        <v>52</v>
+      </c>
+      <c r="P542" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A543" t="s">
+        <v>16</v>
+      </c>
+      <c r="B543" t="s">
+        <v>54</v>
+      </c>
+      <c r="C543" t="s">
+        <v>36</v>
+      </c>
+      <c r="D543" t="s">
+        <v>27</v>
+      </c>
+      <c r="E543" s="2">
+        <v>3</v>
+      </c>
+      <c r="F543">
+        <v>345.41</v>
+      </c>
+      <c r="G543">
+        <v>58.19</v>
+      </c>
+      <c r="H543">
+        <v>93.58</v>
+      </c>
+      <c r="I543">
+        <v>25.04</v>
+      </c>
+      <c r="J543">
+        <v>23.31</v>
+      </c>
+      <c r="K543">
+        <v>4.96</v>
+      </c>
+      <c r="L543">
+        <v>550.49</v>
+      </c>
+      <c r="M543">
+        <v>550.49</v>
+      </c>
+      <c r="N543" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O543" t="s">
+        <v>52</v>
+      </c>
+      <c r="P543" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A544" t="s">
+        <v>16</v>
+      </c>
+      <c r="B544" t="s">
+        <v>54</v>
+      </c>
+      <c r="C544" t="s">
+        <v>26</v>
+      </c>
+      <c r="D544" t="s">
+        <v>22</v>
+      </c>
+      <c r="E544" s="2">
+        <v>1</v>
+      </c>
+      <c r="F544">
+        <v>344.71</v>
+      </c>
+      <c r="G544">
+        <v>58.19</v>
+      </c>
+      <c r="H544">
+        <v>299.74</v>
+      </c>
+      <c r="I544">
+        <v>70.23</v>
+      </c>
+      <c r="J544">
+        <v>113.25</v>
+      </c>
+      <c r="K544">
+        <v>4.96</v>
+      </c>
+      <c r="L544">
+        <v>891.09</v>
+      </c>
+      <c r="M544">
+        <v>891.09</v>
+      </c>
+      <c r="N544" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O544" t="s">
+        <v>52</v>
+      </c>
+      <c r="P544" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A545" t="s">
+        <v>16</v>
+      </c>
+      <c r="B545" t="s">
+        <v>54</v>
+      </c>
+      <c r="C545" t="s">
+        <v>26</v>
+      </c>
+      <c r="D545" t="s">
+        <v>24</v>
+      </c>
+      <c r="E545" s="2">
+        <v>1</v>
+      </c>
+      <c r="F545">
+        <v>344.71</v>
+      </c>
+      <c r="G545">
+        <v>58.19</v>
+      </c>
+      <c r="H545">
+        <v>270.27</v>
+      </c>
+      <c r="I545">
+        <v>70.23</v>
+      </c>
+      <c r="J545">
+        <v>113.25</v>
+      </c>
+      <c r="K545">
+        <v>4.96</v>
+      </c>
+      <c r="L545">
+        <v>861.62</v>
+      </c>
+      <c r="M545">
+        <v>861.62</v>
+      </c>
+      <c r="N545" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O545" t="s">
+        <v>52</v>
+      </c>
+      <c r="P545" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A546" t="s">
+        <v>16</v>
+      </c>
+      <c r="B546" t="s">
+        <v>54</v>
+      </c>
+      <c r="C546" t="s">
+        <v>26</v>
+      </c>
+      <c r="D546" t="s">
+        <v>23</v>
+      </c>
+      <c r="E546" s="2">
+        <v>1</v>
+      </c>
+      <c r="F546">
+        <v>344.71</v>
+      </c>
+      <c r="G546">
+        <v>58.19</v>
+      </c>
+      <c r="H546">
+        <v>240.8</v>
+      </c>
+      <c r="I546">
+        <v>70.23</v>
+      </c>
+      <c r="J546">
+        <v>113.25</v>
+      </c>
+      <c r="K546">
+        <v>4.96</v>
+      </c>
+      <c r="L546">
+        <v>832.15</v>
+      </c>
+      <c r="M546">
+        <v>832.15</v>
+      </c>
+      <c r="N546" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O546" t="s">
+        <v>52</v>
+      </c>
+      <c r="P546" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A547" t="s">
+        <v>16</v>
+      </c>
+      <c r="B547" t="s">
+        <v>54</v>
+      </c>
+      <c r="C547" t="s">
+        <v>26</v>
+      </c>
+      <c r="D547" t="s">
+        <v>27</v>
+      </c>
+      <c r="E547" s="2">
+        <v>2</v>
+      </c>
+      <c r="F547">
+        <v>344.71</v>
+      </c>
+      <c r="G547">
+        <v>58.19</v>
+      </c>
+      <c r="H547">
+        <v>194.6</v>
+      </c>
+      <c r="I547">
+        <v>20.98</v>
+      </c>
+      <c r="J547">
+        <v>92.8</v>
+      </c>
+      <c r="K547">
+        <v>4.96</v>
+      </c>
+      <c r="L547">
+        <v>716.24</v>
+      </c>
+      <c r="M547">
+        <v>716.24</v>
+      </c>
+      <c r="N547" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O547" t="s">
+        <v>52</v>
+      </c>
+      <c r="P547" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A548" t="s">
+        <v>16</v>
+      </c>
+      <c r="B548" t="s">
+        <v>54</v>
+      </c>
+      <c r="C548" t="s">
+        <v>26</v>
+      </c>
+      <c r="D548" t="s">
+        <v>27</v>
+      </c>
+      <c r="E548" s="2">
+        <v>3</v>
+      </c>
+      <c r="F548">
+        <v>344.71</v>
+      </c>
+      <c r="G548">
+        <v>58.19</v>
+      </c>
+      <c r="H548">
+        <v>89.37</v>
+      </c>
+      <c r="I548">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="J548">
+        <v>93.16</v>
+      </c>
+      <c r="K548">
+        <v>4.96</v>
+      </c>
+      <c r="L548">
+        <v>608.88</v>
+      </c>
+      <c r="M548">
+        <v>608.88</v>
+      </c>
+      <c r="N548" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O548" t="s">
+        <v>52</v>
+      </c>
+      <c r="P548" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A549" t="s">
+        <v>16</v>
+      </c>
+      <c r="B549" t="s">
+        <v>55</v>
+      </c>
+      <c r="C549" t="s">
+        <v>25</v>
+      </c>
+      <c r="D549" t="s">
+        <v>22</v>
+      </c>
+      <c r="E549" s="2">
+        <v>1</v>
+      </c>
+      <c r="F549">
+        <v>356.76479999999998</v>
+      </c>
+      <c r="G549">
+        <v>58.19</v>
+      </c>
+      <c r="H549">
+        <v>280.71679999999998</v>
+      </c>
+      <c r="I549">
+        <v>69.747200000000007</v>
+      </c>
+      <c r="J549">
+        <v>106.2989</v>
+      </c>
+      <c r="K549">
+        <v>5.6417999999999999</v>
+      </c>
+      <c r="L549">
+        <v>877.36170000000004</v>
+      </c>
+      <c r="M549">
+        <v>877.36170000000004</v>
+      </c>
+      <c r="N549" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O549" t="s">
+        <v>52</v>
+      </c>
+      <c r="P549" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A550" t="s">
+        <v>16</v>
+      </c>
+      <c r="B550" t="s">
+        <v>55</v>
+      </c>
+      <c r="C550" t="s">
+        <v>25</v>
+      </c>
+      <c r="D550" t="s">
+        <v>24</v>
+      </c>
+      <c r="E550" s="2">
+        <v>1</v>
+      </c>
+      <c r="F550">
+        <v>356.76479999999998</v>
+      </c>
+      <c r="G550">
+        <v>58.19</v>
+      </c>
+      <c r="H550">
+        <v>257.83179999999999</v>
+      </c>
+      <c r="I550">
+        <v>69.747200000000007</v>
+      </c>
+      <c r="J550">
+        <v>106.2989</v>
+      </c>
+      <c r="K550">
+        <v>5.6417999999999999</v>
+      </c>
+      <c r="L550">
+        <v>854.47670000000005</v>
+      </c>
+      <c r="M550">
+        <v>854.47670000000005</v>
+      </c>
+      <c r="N550" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O550" t="s">
+        <v>52</v>
+      </c>
+      <c r="P550" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A551" t="s">
+        <v>16</v>
+      </c>
+      <c r="B551" t="s">
+        <v>55</v>
+      </c>
+      <c r="C551" t="s">
+        <v>25</v>
+      </c>
+      <c r="D551" t="s">
+        <v>23</v>
+      </c>
+      <c r="E551" s="2">
+        <v>1</v>
+      </c>
+      <c r="F551">
+        <v>356.76479999999998</v>
+      </c>
+      <c r="G551">
+        <v>58.19</v>
+      </c>
+      <c r="H551">
+        <v>234.9468</v>
+      </c>
+      <c r="I551">
+        <v>69.747200000000007</v>
+      </c>
+      <c r="J551">
+        <v>106.2989</v>
+      </c>
+      <c r="K551">
+        <v>5.6417999999999999</v>
+      </c>
+      <c r="L551">
+        <v>831.59169999999995</v>
+      </c>
+      <c r="M551">
+        <v>831.59169999999995</v>
+      </c>
+      <c r="N551" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O551" t="s">
+        <v>52</v>
+      </c>
+      <c r="P551" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A552" t="s">
+        <v>16</v>
+      </c>
+      <c r="B552" t="s">
+        <v>55</v>
+      </c>
+      <c r="C552" t="s">
+        <v>25</v>
+      </c>
+      <c r="D552" t="s">
+        <v>27</v>
+      </c>
+      <c r="E552" s="2">
+        <v>2</v>
+      </c>
+      <c r="F552">
+        <v>356.76479999999998</v>
+      </c>
+      <c r="G552">
+        <v>58.19</v>
+      </c>
+      <c r="H552">
+        <v>174.67519999999999</v>
+      </c>
+      <c r="I552">
+        <v>23.193000000000001</v>
+      </c>
+      <c r="J552">
+        <v>118.1489</v>
+      </c>
+      <c r="K552">
+        <v>5.6417999999999999</v>
+      </c>
+      <c r="L552">
+        <v>736.61590000000001</v>
+      </c>
+      <c r="M552">
+        <v>736.61590000000001</v>
+      </c>
+      <c r="N552" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O552" t="s">
+        <v>52</v>
+      </c>
+      <c r="P552" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A553" t="s">
+        <v>16</v>
+      </c>
+      <c r="B553" t="s">
+        <v>55</v>
+      </c>
+      <c r="C553" t="s">
+        <v>25</v>
+      </c>
+      <c r="D553" t="s">
+        <v>27</v>
+      </c>
+      <c r="E553" s="2">
+        <v>3</v>
+      </c>
+      <c r="F553">
+        <v>356.76479999999998</v>
+      </c>
+      <c r="G553">
+        <v>58.19</v>
+      </c>
+      <c r="H553">
+        <v>117.64</v>
+      </c>
+      <c r="I553">
+        <v>22.5669</v>
+      </c>
+      <c r="J553">
+        <v>107.7089</v>
+      </c>
+      <c r="K553">
+        <v>5.6417999999999999</v>
+      </c>
+      <c r="L553">
+        <v>736.61590000000001</v>
+      </c>
+      <c r="M553">
+        <v>736.61590000000001</v>
+      </c>
+      <c r="N553" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O553" t="s">
+        <v>52</v>
+      </c>
+      <c r="P553" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A554" t="s">
+        <v>16</v>
+      </c>
+      <c r="B554" t="s">
+        <v>56</v>
+      </c>
+      <c r="C554" t="s">
+        <v>30</v>
+      </c>
+      <c r="D554" t="s">
+        <v>22</v>
+      </c>
+      <c r="E554" s="2">
+        <v>1</v>
+      </c>
+      <c r="F554">
+        <v>371.38</v>
+      </c>
+      <c r="G554">
+        <v>58.19</v>
+      </c>
+      <c r="H554">
+        <v>257.19</v>
+      </c>
+      <c r="I554">
+        <v>67.63</v>
+      </c>
+      <c r="J554">
+        <v>154.66999999999999</v>
+      </c>
+      <c r="K554">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="L554">
+        <v>925.25</v>
+      </c>
+      <c r="M554">
+        <v>925.25</v>
+      </c>
+      <c r="N554" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O554" t="s">
+        <v>52</v>
+      </c>
+      <c r="P554" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A555" t="s">
+        <v>16</v>
+      </c>
+      <c r="B555" t="s">
+        <v>56</v>
+      </c>
+      <c r="C555" t="s">
+        <v>30</v>
+      </c>
+      <c r="D555" t="s">
+        <v>24</v>
+      </c>
+      <c r="E555" s="2">
+        <v>1</v>
+      </c>
+      <c r="F555">
+        <v>371.38</v>
+      </c>
+      <c r="G555">
+        <v>58.19</v>
+      </c>
+      <c r="H555">
+        <v>240.84</v>
+      </c>
+      <c r="I555">
+        <v>67.63</v>
+      </c>
+      <c r="J555">
+        <v>154.66999999999999</v>
+      </c>
+      <c r="K555">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="L555">
+        <v>908.9</v>
+      </c>
+      <c r="M555">
+        <v>908.9</v>
+      </c>
+      <c r="N555" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O555" t="s">
+        <v>52</v>
+      </c>
+      <c r="P555" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A556" t="s">
+        <v>16</v>
+      </c>
+      <c r="B556" t="s">
+        <v>56</v>
+      </c>
+      <c r="C556" t="s">
+        <v>30</v>
+      </c>
+      <c r="D556" t="s">
+        <v>23</v>
+      </c>
+      <c r="E556" s="2">
+        <v>1</v>
+      </c>
+      <c r="F556">
+        <v>371.38</v>
+      </c>
+      <c r="G556">
+        <v>58.19</v>
+      </c>
+      <c r="H556">
+        <v>224.48</v>
+      </c>
+      <c r="I556">
+        <v>67.63</v>
+      </c>
+      <c r="J556">
+        <v>154.66999999999999</v>
+      </c>
+      <c r="K556">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="L556">
+        <v>892.54</v>
+      </c>
+      <c r="M556">
+        <v>892.54</v>
+      </c>
+      <c r="N556" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O556" t="s">
+        <v>52</v>
+      </c>
+      <c r="P556" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A557" t="s">
+        <v>16</v>
+      </c>
+      <c r="B557" t="s">
+        <v>56</v>
+      </c>
+      <c r="C557" t="s">
+        <v>30</v>
+      </c>
+      <c r="D557" t="s">
+        <v>27</v>
+      </c>
+      <c r="E557" s="2">
+        <v>2</v>
+      </c>
+      <c r="F557">
+        <v>371.38</v>
+      </c>
+      <c r="G557">
+        <v>58.19</v>
+      </c>
+      <c r="H557">
+        <v>174.16</v>
+      </c>
+      <c r="I557">
+        <v>30.43</v>
+      </c>
+      <c r="J557">
+        <v>125.48</v>
+      </c>
+      <c r="K557">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="L557">
+        <v>775.83</v>
+      </c>
+      <c r="M557">
+        <v>775.83</v>
+      </c>
+      <c r="N557" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O557" t="s">
+        <v>52</v>
+      </c>
+      <c r="P557" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A558" t="s">
+        <v>16</v>
+      </c>
+      <c r="B558" t="s">
+        <v>56</v>
+      </c>
+      <c r="C558" t="s">
+        <v>30</v>
+      </c>
+      <c r="D558" t="s">
+        <v>27</v>
+      </c>
+      <c r="E558" s="2">
+        <v>3</v>
+      </c>
+      <c r="F558">
+        <v>371.38</v>
+      </c>
+      <c r="G558">
+        <v>58.19</v>
+      </c>
+      <c r="H558">
+        <v>74.88</v>
+      </c>
+      <c r="I558">
+        <v>23.7</v>
+      </c>
+      <c r="J558">
+        <v>128.18</v>
+      </c>
+      <c r="K558">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="L558">
+        <v>673.52</v>
+      </c>
+      <c r="M558">
+        <v>673.52</v>
+      </c>
+      <c r="N558" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O558" t="s">
+        <v>52</v>
+      </c>
+      <c r="P558" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A559" t="s">
+        <v>16</v>
+      </c>
+      <c r="B559" t="s">
+        <v>57</v>
+      </c>
+      <c r="C559" t="s">
+        <v>46</v>
+      </c>
+      <c r="D559" t="s">
+        <v>22</v>
+      </c>
+      <c r="E559" s="2">
+        <v>1</v>
+      </c>
+      <c r="F559">
+        <v>397.88</v>
+      </c>
+      <c r="G559">
+        <v>58.19</v>
+      </c>
+      <c r="H559">
+        <v>299.74</v>
+      </c>
+      <c r="I559">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="J559">
+        <v>176.04</v>
+      </c>
+      <c r="K559">
+        <v>3.85</v>
+      </c>
+      <c r="L559">
+        <v>1008.75</v>
+      </c>
+      <c r="M559">
+        <v>1008.75</v>
+      </c>
+      <c r="N559" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O559" t="s">
+        <v>52</v>
+      </c>
+      <c r="P559" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A560" t="s">
+        <v>16</v>
+      </c>
+      <c r="B560" t="s">
+        <v>57</v>
+      </c>
+      <c r="C560" t="s">
+        <v>46</v>
+      </c>
+      <c r="D560" t="s">
+        <v>23</v>
+      </c>
+      <c r="E560" s="2">
+        <v>1</v>
+      </c>
+      <c r="F560">
+        <v>397.88</v>
+      </c>
+      <c r="G560">
+        <v>58.19</v>
+      </c>
+      <c r="H560">
+        <v>268.92</v>
+      </c>
+      <c r="I560">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="J560">
+        <v>176.04</v>
+      </c>
+      <c r="K560">
+        <v>3.85</v>
+      </c>
+      <c r="L560">
+        <v>977.93</v>
+      </c>
+      <c r="M560">
+        <v>977.93</v>
+      </c>
+      <c r="N560" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O560" t="s">
+        <v>52</v>
+      </c>
+      <c r="P560" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A561" t="s">
+        <v>16</v>
+      </c>
+      <c r="B561" t="s">
+        <v>57</v>
+      </c>
+      <c r="C561" t="s">
+        <v>46</v>
+      </c>
+      <c r="D561" t="s">
+        <v>24</v>
+      </c>
+      <c r="E561" s="2">
+        <v>1</v>
+      </c>
+      <c r="F561">
+        <v>397.88</v>
+      </c>
+      <c r="G561">
+        <v>58.19</v>
+      </c>
+      <c r="H561">
+        <v>284.33</v>
+      </c>
+      <c r="I561">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="J561">
+        <v>176.04</v>
+      </c>
+      <c r="K561">
+        <v>3.85</v>
+      </c>
+      <c r="L561">
+        <v>993.34</v>
+      </c>
+      <c r="M561">
+        <v>993.34</v>
+      </c>
+      <c r="N561" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O561" t="s">
+        <v>52</v>
+      </c>
+      <c r="P561" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A562" t="s">
+        <v>16</v>
+      </c>
+      <c r="B562" t="s">
+        <v>57</v>
+      </c>
+      <c r="C562" t="s">
+        <v>46</v>
+      </c>
+      <c r="D562" t="s">
+        <v>27</v>
+      </c>
+      <c r="E562" s="2">
+        <v>2</v>
+      </c>
+      <c r="F562">
+        <v>397.88</v>
+      </c>
+      <c r="G562">
+        <v>58.19</v>
+      </c>
+      <c r="H562">
+        <v>194.6</v>
+      </c>
+      <c r="I562">
+        <v>30.32</v>
+      </c>
+      <c r="J562">
+        <v>176.04</v>
+      </c>
+      <c r="K562">
+        <v>3.85</v>
+      </c>
+      <c r="L562">
+        <v>840.18</v>
+      </c>
+      <c r="M562">
+        <v>840.18</v>
+      </c>
+      <c r="N562" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O562" t="s">
+        <v>52</v>
+      </c>
+      <c r="P562" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A563" t="s">
+        <v>16</v>
+      </c>
+      <c r="B563" t="s">
+        <v>57</v>
+      </c>
+      <c r="C563" t="s">
+        <v>46</v>
+      </c>
+      <c r="D563" t="s">
+        <v>27</v>
+      </c>
+      <c r="E563" s="2">
+        <v>3</v>
+      </c>
+      <c r="F563">
+        <v>397.88</v>
+      </c>
+      <c r="G563">
+        <v>58.19</v>
+      </c>
+      <c r="H563">
+        <v>89.37</v>
+      </c>
+      <c r="I563">
+        <v>22.83</v>
+      </c>
+      <c r="J563">
+        <v>176.04</v>
+      </c>
+      <c r="K563">
+        <v>3.85</v>
+      </c>
+      <c r="L563">
+        <v>694.5</v>
+      </c>
+      <c r="M563">
+        <v>694.5</v>
+      </c>
+      <c r="N563" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O563" t="s">
+        <v>52</v>
+      </c>
+      <c r="P563" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A564" t="s">
+        <v>16</v>
+      </c>
+      <c r="B564" t="s">
+        <v>58</v>
+      </c>
+      <c r="C564" t="s">
+        <v>41</v>
+      </c>
+      <c r="D564" t="s">
+        <v>22</v>
+      </c>
+      <c r="E564" s="2">
+        <v>1</v>
+      </c>
+      <c r="F564">
+        <v>312.76089999999999</v>
+      </c>
+      <c r="G564">
+        <v>58.19</v>
+      </c>
+      <c r="H564">
+        <v>299.73989999999998</v>
+      </c>
+      <c r="I564">
+        <v>58.125900000000001</v>
+      </c>
+      <c r="J564">
+        <v>97.19</v>
+      </c>
+      <c r="K564">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="L564">
+        <v>830.85889999999995</v>
+      </c>
+      <c r="M564">
+        <v>830.85889999999995</v>
+      </c>
+      <c r="N564" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O564" t="s">
+        <v>52</v>
+      </c>
+      <c r="P564" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A565" t="s">
+        <v>16</v>
+      </c>
+      <c r="B565" t="s">
+        <v>58</v>
+      </c>
+      <c r="C565" t="s">
+        <v>41</v>
+      </c>
+      <c r="D565" t="s">
+        <v>23</v>
+      </c>
+      <c r="E565" s="2">
+        <v>1</v>
+      </c>
+      <c r="F565">
+        <v>312.76089999999999</v>
+      </c>
+      <c r="G565">
+        <v>58.19</v>
+      </c>
+      <c r="H565">
+        <v>256.10649999999998</v>
+      </c>
+      <c r="I565">
+        <v>58.125900000000001</v>
+      </c>
+      <c r="J565">
+        <v>97.19</v>
+      </c>
+      <c r="K565">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="L565">
+        <v>787.22550000000001</v>
+      </c>
+      <c r="M565">
+        <v>787.22550000000001</v>
+      </c>
+      <c r="N565" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O565" t="s">
+        <v>52</v>
+      </c>
+      <c r="P565" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A566" t="s">
+        <v>16</v>
+      </c>
+      <c r="B566" t="s">
+        <v>58</v>
+      </c>
+      <c r="C566" t="s">
+        <v>41</v>
+      </c>
+      <c r="D566" t="s">
+        <v>24</v>
+      </c>
+      <c r="E566" s="2">
+        <v>1</v>
+      </c>
+      <c r="F566">
+        <v>312.76089999999999</v>
+      </c>
+      <c r="G566">
+        <v>58.19</v>
+      </c>
+      <c r="H566">
+        <v>277.92320000000001</v>
+      </c>
+      <c r="I566">
+        <v>58.125900000000001</v>
+      </c>
+      <c r="J566">
+        <v>97.19</v>
+      </c>
+      <c r="K566">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="L566">
+        <v>809.04219999999998</v>
+      </c>
+      <c r="M566">
+        <v>809.04219999999998</v>
+      </c>
+      <c r="N566" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O566" t="s">
+        <v>52</v>
+      </c>
+      <c r="P566" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A567" t="s">
+        <v>16</v>
+      </c>
+      <c r="B567" t="s">
+        <v>58</v>
+      </c>
+      <c r="C567" t="s">
+        <v>41</v>
+      </c>
+      <c r="D567" t="s">
+        <v>27</v>
+      </c>
+      <c r="E567" s="2">
+        <v>2</v>
+      </c>
+      <c r="F567">
+        <v>312.76089999999999</v>
+      </c>
+      <c r="G567">
+        <v>58.19</v>
+      </c>
+      <c r="H567">
+        <v>194.59950000000001</v>
+      </c>
+      <c r="I567">
+        <v>24.2043</v>
+      </c>
+      <c r="J567">
+        <v>97.19</v>
+      </c>
+      <c r="K567">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="L567">
+        <v>691.79690000000005</v>
+      </c>
+      <c r="M567">
+        <v>691.79690000000005</v>
+      </c>
+      <c r="N567" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O567" t="s">
+        <v>52</v>
+      </c>
+      <c r="P567" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A568" t="s">
+        <v>16</v>
+      </c>
+      <c r="B568" t="s">
+        <v>58</v>
+      </c>
+      <c r="C568" t="s">
+        <v>41</v>
+      </c>
+      <c r="D568" t="s">
+        <v>27</v>
+      </c>
+      <c r="E568" s="2">
+        <v>3</v>
+      </c>
+      <c r="F568">
+        <v>312.76089999999999</v>
+      </c>
+      <c r="G568">
+        <v>58.19</v>
+      </c>
+      <c r="H568">
+        <v>89.367099999999994</v>
+      </c>
+      <c r="I568">
+        <v>21.183199999999999</v>
+      </c>
+      <c r="J568">
+        <v>97.19</v>
+      </c>
+      <c r="K568">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="L568">
+        <v>583.54340000000002</v>
+      </c>
+      <c r="M568">
+        <v>583.54340000000002</v>
+      </c>
+      <c r="N568" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O568" t="s">
+        <v>52</v>
+      </c>
+      <c r="P568" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A569" t="s">
+        <v>16</v>
+      </c>
+      <c r="B569" t="s">
+        <v>59</v>
+      </c>
+      <c r="C569" t="s">
+        <v>44</v>
+      </c>
+      <c r="D569" t="s">
+        <v>22</v>
+      </c>
+      <c r="E569" s="2">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>355.63</v>
+      </c>
+      <c r="G569">
+        <v>58.19</v>
+      </c>
+      <c r="H569">
+        <v>264.32</v>
+      </c>
+      <c r="I569">
+        <v>64.13</v>
+      </c>
+      <c r="J569">
+        <v>167.29</v>
+      </c>
+      <c r="K569">
+        <v>8.42</v>
+      </c>
+      <c r="L569">
+        <v>917.9799999999999</v>
+      </c>
+      <c r="M569">
+        <v>917.9799999999999</v>
+      </c>
+      <c r="N569" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O569" t="s">
+        <v>52</v>
+      </c>
+      <c r="P569" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A570" t="s">
+        <v>16</v>
+      </c>
+      <c r="B570" t="s">
+        <v>59</v>
+      </c>
+      <c r="C570" t="s">
+        <v>44</v>
+      </c>
+      <c r="D570" t="s">
+        <v>23</v>
+      </c>
+      <c r="E570" s="2">
+        <v>1</v>
+      </c>
+      <c r="F570">
+        <v>355.63</v>
+      </c>
+      <c r="G570">
+        <v>58.19</v>
+      </c>
+      <c r="H570">
+        <v>209.75</v>
+      </c>
+      <c r="I570">
+        <v>64.13</v>
+      </c>
+      <c r="J570">
+        <v>167.29</v>
+      </c>
+      <c r="K570">
+        <v>8.42</v>
+      </c>
+      <c r="L570">
+        <v>863.40999999999985</v>
+      </c>
+      <c r="M570">
+        <v>863.40999999999985</v>
+      </c>
+      <c r="N570" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O570" t="s">
+        <v>52</v>
+      </c>
+      <c r="P570" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A571" t="s">
+        <v>16</v>
+      </c>
+      <c r="B571" t="s">
+        <v>59</v>
+      </c>
+      <c r="C571" t="s">
+        <v>44</v>
+      </c>
+      <c r="D571" t="s">
+        <v>27</v>
+      </c>
+      <c r="E571" s="2">
+        <v>2</v>
+      </c>
+      <c r="F571">
+        <v>355.63</v>
+      </c>
+      <c r="G571">
+        <v>58.19</v>
+      </c>
+      <c r="H571">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="I571">
+        <v>26.95</v>
+      </c>
+      <c r="J571">
+        <v>153.13</v>
+      </c>
+      <c r="K571">
+        <v>8.42</v>
+      </c>
+      <c r="L571">
+        <v>756.12</v>
+      </c>
+      <c r="M571">
+        <v>756.12</v>
+      </c>
+      <c r="N571" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O571" t="s">
+        <v>52</v>
+      </c>
+      <c r="P571" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A572" t="s">
+        <v>16</v>
+      </c>
+      <c r="B572" t="s">
+        <v>59</v>
+      </c>
+      <c r="C572" t="s">
+        <v>44</v>
+      </c>
+      <c r="D572" t="s">
+        <v>27</v>
+      </c>
+      <c r="E572" s="2">
+        <v>3</v>
+      </c>
+      <c r="F572">
+        <v>355.63</v>
+      </c>
+      <c r="G572">
+        <v>58.19</v>
+      </c>
+      <c r="H572">
+        <v>93.58</v>
+      </c>
+      <c r="I572">
+        <v>20.62</v>
+      </c>
+      <c r="J572">
+        <v>144.72</v>
+      </c>
+      <c r="K572">
+        <v>8.42</v>
+      </c>
+      <c r="L572">
+        <v>681.16</v>
+      </c>
+      <c r="M572">
+        <v>681.16</v>
+      </c>
+      <c r="N572" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O572" t="s">
+        <v>52</v>
+      </c>
+      <c r="P572" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A573" t="s">
+        <v>16</v>
+      </c>
+      <c r="B573" t="s">
+        <v>59</v>
+      </c>
+      <c r="C573" t="s">
+        <v>45</v>
+      </c>
+      <c r="D573" t="s">
+        <v>22</v>
+      </c>
+      <c r="E573" s="2">
+        <v>1</v>
+      </c>
+      <c r="F573">
+        <v>357.73</v>
+      </c>
+      <c r="G573">
+        <v>58.19</v>
+      </c>
+      <c r="H573">
+        <v>264.32</v>
+      </c>
+      <c r="I573">
+        <v>67.98</v>
+      </c>
+      <c r="J573">
+        <v>31.58</v>
+      </c>
+      <c r="K573">
+        <v>8.42</v>
+      </c>
+      <c r="L573">
+        <v>788.22</v>
+      </c>
+      <c r="M573">
+        <v>788.22</v>
+      </c>
+      <c r="N573" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O573" t="s">
+        <v>52</v>
+      </c>
+      <c r="P573" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A574" t="s">
+        <v>16</v>
+      </c>
+      <c r="B574" t="s">
+        <v>59</v>
+      </c>
+      <c r="C574" t="s">
+        <v>45</v>
+      </c>
+      <c r="D574" t="s">
+        <v>23</v>
+      </c>
+      <c r="E574" s="2">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>357.73</v>
+      </c>
+      <c r="G574">
+        <v>58.19</v>
+      </c>
+      <c r="H574">
+        <v>195.08</v>
+      </c>
+      <c r="I574">
+        <v>67.98</v>
+      </c>
+      <c r="J574">
+        <v>31.58</v>
+      </c>
+      <c r="K574">
+        <v>8.42</v>
+      </c>
+      <c r="L574">
+        <v>718.98</v>
+      </c>
+      <c r="M574">
+        <v>718.98</v>
+      </c>
+      <c r="N574" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O574" t="s">
+        <v>52</v>
+      </c>
+      <c r="P574" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A575" t="s">
+        <v>16</v>
+      </c>
+      <c r="B575" t="s">
+        <v>59</v>
+      </c>
+      <c r="C575" t="s">
+        <v>45</v>
+      </c>
+      <c r="D575" t="s">
+        <v>27</v>
+      </c>
+      <c r="E575" s="2">
+        <v>2</v>
+      </c>
+      <c r="F575">
+        <v>357.73</v>
+      </c>
+      <c r="G575">
+        <v>58.19</v>
+      </c>
+      <c r="H575">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="I575">
+        <v>28.47</v>
+      </c>
+      <c r="J575">
+        <v>31.58</v>
+      </c>
+      <c r="K575">
+        <v>8.42</v>
+      </c>
+      <c r="L575">
+        <v>638.19000000000005</v>
+      </c>
+      <c r="M575">
+        <v>638.19000000000005</v>
+      </c>
+      <c r="N575" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O575" t="s">
+        <v>52</v>
+      </c>
+      <c r="P575" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A576" t="s">
+        <v>16</v>
+      </c>
+      <c r="B576" t="s">
+        <v>59</v>
+      </c>
+      <c r="C576" t="s">
+        <v>45</v>
+      </c>
+      <c r="D576" t="s">
+        <v>27</v>
+      </c>
+      <c r="E576" s="2">
+        <v>3</v>
+      </c>
+      <c r="F576">
+        <v>357.73</v>
+      </c>
+      <c r="G576">
+        <v>58.19</v>
+      </c>
+      <c r="H576">
+        <v>93.58</v>
+      </c>
+      <c r="I576">
+        <v>24.22</v>
+      </c>
+      <c r="J576">
+        <v>31.58</v>
+      </c>
+      <c r="K576">
+        <v>8.42</v>
+      </c>
+      <c r="L576">
+        <v>573.72</v>
+      </c>
+      <c r="M576">
+        <v>573.72</v>
+      </c>
+      <c r="N576" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O576" t="s">
+        <v>52</v>
+      </c>
+      <c r="P576" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A577" t="s">
+        <v>16</v>
+      </c>
+      <c r="B577" t="s">
+        <v>59</v>
+      </c>
+      <c r="C577" t="s">
+        <v>31</v>
+      </c>
+      <c r="D577" t="s">
+        <v>22</v>
+      </c>
+      <c r="E577" s="2">
+        <v>1</v>
+      </c>
+      <c r="F577">
+        <v>358.79</v>
+      </c>
+      <c r="G577">
+        <v>58.19</v>
+      </c>
+      <c r="H577">
+        <v>280.72000000000003</v>
+      </c>
+      <c r="I577">
+        <v>96.41</v>
+      </c>
+      <c r="J577">
+        <v>25.92</v>
+      </c>
+      <c r="K577">
+        <v>8.42</v>
+      </c>
+      <c r="L577">
+        <v>828.44999999999993</v>
+      </c>
+      <c r="M577">
+        <v>828.44999999999993</v>
+      </c>
+      <c r="N577" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O577" t="s">
+        <v>52</v>
+      </c>
+      <c r="P577" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A578" t="s">
+        <v>16</v>
+      </c>
+      <c r="B578" t="s">
+        <v>59</v>
+      </c>
+      <c r="C578" t="s">
+        <v>31</v>
+      </c>
+      <c r="D578" t="s">
+        <v>24</v>
+      </c>
+      <c r="E578" s="2">
+        <v>1</v>
+      </c>
+      <c r="F578">
+        <v>358.79</v>
+      </c>
+      <c r="G578">
+        <v>58.19</v>
+      </c>
+      <c r="H578">
+        <v>230.16</v>
+      </c>
+      <c r="I578">
+        <v>96.41</v>
+      </c>
+      <c r="J578">
+        <v>25.92</v>
+      </c>
+      <c r="K578">
+        <v>8.42</v>
+      </c>
+      <c r="L578">
+        <v>777.88999999999987</v>
+      </c>
+      <c r="M578">
+        <v>777.88999999999987</v>
+      </c>
+      <c r="N578" s="1">
+        <f t="shared" ref="N578:N595" si="10">G578-58.1922</f>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O578" t="s">
+        <v>52</v>
+      </c>
+      <c r="P578" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A579" t="s">
+        <v>16</v>
+      </c>
+      <c r="B579" t="s">
+        <v>59</v>
+      </c>
+      <c r="C579" t="s">
+        <v>31</v>
+      </c>
+      <c r="D579" t="s">
+        <v>23</v>
+      </c>
+      <c r="E579" s="2">
+        <v>1</v>
+      </c>
+      <c r="F579">
+        <v>358.79</v>
+      </c>
+      <c r="G579">
+        <v>58.19</v>
+      </c>
+      <c r="H579">
+        <v>179.61</v>
+      </c>
+      <c r="I579">
+        <v>96.41</v>
+      </c>
+      <c r="J579">
+        <v>25.92</v>
+      </c>
+      <c r="K579">
+        <v>8.42</v>
+      </c>
+      <c r="L579">
+        <v>727.33999999999992</v>
+      </c>
+      <c r="M579">
+        <v>727.33999999999992</v>
+      </c>
+      <c r="N579" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O579" t="s">
+        <v>52</v>
+      </c>
+      <c r="P579" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A580" t="s">
+        <v>16</v>
+      </c>
+      <c r="B580" t="s">
+        <v>59</v>
+      </c>
+      <c r="C580" t="s">
+        <v>31</v>
+      </c>
+      <c r="D580" t="s">
+        <v>27</v>
+      </c>
+      <c r="E580" s="2">
+        <v>2</v>
+      </c>
+      <c r="F580">
+        <v>358.79</v>
+      </c>
+      <c r="G580">
+        <v>58.19</v>
+      </c>
+      <c r="H580">
+        <v>174.68</v>
+      </c>
+      <c r="I580">
+        <v>41.78</v>
+      </c>
+      <c r="J580">
+        <v>25.92</v>
+      </c>
+      <c r="K580">
+        <v>8.42</v>
+      </c>
+      <c r="L580">
+        <v>667.78</v>
+      </c>
+      <c r="M580">
+        <v>667.78</v>
+      </c>
+      <c r="N580" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O580" t="s">
+        <v>52</v>
+      </c>
+      <c r="P580" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A581" t="s">
+        <v>16</v>
+      </c>
+      <c r="B581" t="s">
+        <v>59</v>
+      </c>
+      <c r="C581" t="s">
+        <v>31</v>
+      </c>
+      <c r="D581" t="s">
+        <v>27</v>
+      </c>
+      <c r="E581" s="2">
+        <v>3</v>
+      </c>
+      <c r="F581">
+        <v>358.79</v>
+      </c>
+      <c r="G581">
+        <v>58.19</v>
+      </c>
+      <c r="H581">
+        <v>117.64</v>
+      </c>
+      <c r="I581">
+        <v>31.15</v>
+      </c>
+      <c r="J581">
+        <v>25.92</v>
+      </c>
+      <c r="K581">
+        <v>8.42</v>
+      </c>
+      <c r="L581">
+        <v>600.1099999999999</v>
+      </c>
+      <c r="M581">
+        <v>600.1099999999999</v>
+      </c>
+      <c r="N581" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O581" t="s">
+        <v>52</v>
+      </c>
+      <c r="P581" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A582" t="s">
+        <v>16</v>
+      </c>
+      <c r="B582" t="s">
+        <v>60</v>
+      </c>
+      <c r="C582" t="s">
+        <v>45</v>
+      </c>
+      <c r="D582" t="s">
+        <v>22</v>
+      </c>
+      <c r="E582" s="2">
+        <v>1</v>
+      </c>
+      <c r="F582">
+        <v>394.8</v>
+      </c>
+      <c r="G582">
+        <v>58.19</v>
+      </c>
+      <c r="H582">
+        <v>264.32</v>
+      </c>
+      <c r="I582">
+        <v>73.73</v>
+      </c>
+      <c r="J582">
+        <v>176.65</v>
+      </c>
+      <c r="K582">
+        <v>9.9</v>
+      </c>
+      <c r="L582">
+        <v>977.58999999999992</v>
+      </c>
+      <c r="M582">
+        <v>977.58999999999992</v>
+      </c>
+      <c r="N582" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O582" t="s">
+        <v>52</v>
+      </c>
+      <c r="P582" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A583" t="s">
+        <v>16</v>
+      </c>
+      <c r="B583" t="s">
+        <v>60</v>
+      </c>
+      <c r="C583" t="s">
+        <v>45</v>
+      </c>
+      <c r="D583" t="s">
+        <v>23</v>
+      </c>
+      <c r="E583" s="2">
+        <v>1</v>
+      </c>
+      <c r="F583">
+        <v>394.8</v>
+      </c>
+      <c r="G583">
+        <v>58.19</v>
+      </c>
+      <c r="H583">
+        <v>195.08</v>
+      </c>
+      <c r="I583">
+        <v>73.73</v>
+      </c>
+      <c r="J583">
+        <v>176.65</v>
+      </c>
+      <c r="K583">
+        <v>9.9</v>
+      </c>
+      <c r="L583">
+        <v>908.35</v>
+      </c>
+      <c r="M583">
+        <v>908.35</v>
+      </c>
+      <c r="N583" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O583" t="s">
+        <v>52</v>
+      </c>
+      <c r="P583" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A584" t="s">
+        <v>16</v>
+      </c>
+      <c r="B584" t="s">
+        <v>60</v>
+      </c>
+      <c r="C584" t="s">
+        <v>45</v>
+      </c>
+      <c r="D584" t="s">
+        <v>27</v>
+      </c>
+      <c r="E584" s="2">
+        <v>2</v>
+      </c>
+      <c r="F584">
+        <v>394.8</v>
+      </c>
+      <c r="G584">
+        <v>58.19</v>
+      </c>
+      <c r="H584">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="I584">
+        <v>30.68</v>
+      </c>
+      <c r="J584">
+        <v>182.23</v>
+      </c>
+      <c r="K584">
+        <v>9.9</v>
+      </c>
+      <c r="L584">
+        <v>829.59999999999991</v>
+      </c>
+      <c r="M584">
+        <v>829.59999999999991</v>
+      </c>
+      <c r="N584" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O584" t="s">
+        <v>52</v>
+      </c>
+      <c r="P584" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A585" t="s">
+        <v>16</v>
+      </c>
+      <c r="B585" t="s">
+        <v>60</v>
+      </c>
+      <c r="C585" t="s">
+        <v>45</v>
+      </c>
+      <c r="D585" t="s">
+        <v>27</v>
+      </c>
+      <c r="E585" s="2">
+        <v>3</v>
+      </c>
+      <c r="F585">
+        <v>394.8</v>
+      </c>
+      <c r="G585">
+        <v>58.19</v>
+      </c>
+      <c r="H585">
+        <v>93.58</v>
+      </c>
+      <c r="I585">
+        <v>26.06</v>
+      </c>
+      <c r="J585">
+        <v>155.28</v>
+      </c>
+      <c r="K585">
+        <v>9.9</v>
+      </c>
+      <c r="L585">
+        <v>737.81</v>
+      </c>
+      <c r="M585">
+        <v>737.81</v>
+      </c>
+      <c r="N585" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O585" t="s">
+        <v>52</v>
+      </c>
+      <c r="P585" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A586" t="s">
+        <v>16</v>
+      </c>
+      <c r="B586" t="s">
+        <v>60</v>
+      </c>
+      <c r="C586" t="s">
+        <v>31</v>
+      </c>
+      <c r="D586" t="s">
+        <v>22</v>
+      </c>
+      <c r="E586" s="2">
+        <v>1</v>
+      </c>
+      <c r="F586">
+        <v>395.88</v>
+      </c>
+      <c r="G586">
+        <v>58.19</v>
+      </c>
+      <c r="H586">
+        <v>280.72000000000003</v>
+      </c>
+      <c r="I586">
+        <v>104.37</v>
+      </c>
+      <c r="J586">
+        <v>193.8</v>
+      </c>
+      <c r="K586">
+        <v>9.9</v>
+      </c>
+      <c r="L586">
+        <v>1042.8600000000001</v>
+      </c>
+      <c r="M586">
+        <v>1042.8600000000001</v>
+      </c>
+      <c r="N586" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O586" t="s">
+        <v>52</v>
+      </c>
+      <c r="P586" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A587" t="s">
+        <v>16</v>
+      </c>
+      <c r="B587" t="s">
+        <v>60</v>
+      </c>
+      <c r="C587" t="s">
+        <v>31</v>
+      </c>
+      <c r="D587" t="s">
+        <v>24</v>
+      </c>
+      <c r="E587" s="2">
+        <v>1</v>
+      </c>
+      <c r="F587">
+        <v>395.88</v>
+      </c>
+      <c r="G587">
+        <v>58.19</v>
+      </c>
+      <c r="H587">
+        <v>230.16</v>
+      </c>
+      <c r="I587">
+        <v>104.37</v>
+      </c>
+      <c r="J587">
+        <v>193.8</v>
+      </c>
+      <c r="K587">
+        <v>9.9</v>
+      </c>
+      <c r="L587">
+        <v>992.30000000000007</v>
+      </c>
+      <c r="M587">
+        <v>992.30000000000007</v>
+      </c>
+      <c r="N587" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O587" t="s">
+        <v>52</v>
+      </c>
+      <c r="P587" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A588" t="s">
+        <v>16</v>
+      </c>
+      <c r="B588" t="s">
+        <v>60</v>
+      </c>
+      <c r="C588" t="s">
+        <v>31</v>
+      </c>
+      <c r="D588" t="s">
+        <v>23</v>
+      </c>
+      <c r="E588" s="2">
+        <v>1</v>
+      </c>
+      <c r="F588">
+        <v>395.88</v>
+      </c>
+      <c r="G588">
+        <v>58.19</v>
+      </c>
+      <c r="H588">
+        <v>179.61</v>
+      </c>
+      <c r="I588">
+        <v>104.37</v>
+      </c>
+      <c r="J588">
+        <v>193.8</v>
+      </c>
+      <c r="K588">
+        <v>9.9</v>
+      </c>
+      <c r="L588">
+        <v>941.75000000000011</v>
+      </c>
+      <c r="M588">
+        <v>941.75000000000011</v>
+      </c>
+      <c r="N588" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O588" t="s">
+        <v>52</v>
+      </c>
+      <c r="P588" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A589" t="s">
+        <v>16</v>
+      </c>
+      <c r="B589" t="s">
+        <v>60</v>
+      </c>
+      <c r="C589" t="s">
+        <v>31</v>
+      </c>
+      <c r="D589" t="s">
+        <v>27</v>
+      </c>
+      <c r="E589" s="2">
+        <v>2</v>
+      </c>
+      <c r="F589">
+        <v>395.88</v>
+      </c>
+      <c r="G589">
+        <v>58.19</v>
+      </c>
+      <c r="H589">
+        <v>174.68</v>
+      </c>
+      <c r="I589">
+        <v>44.87</v>
+      </c>
+      <c r="J589">
+        <v>100.59</v>
+      </c>
+      <c r="K589">
+        <v>9.9</v>
+      </c>
+      <c r="L589">
+        <v>784.11</v>
+      </c>
+      <c r="M589">
+        <v>784.11</v>
+      </c>
+      <c r="N589" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O589" t="s">
+        <v>52</v>
+      </c>
+      <c r="P589" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A590" t="s">
+        <v>16</v>
+      </c>
+      <c r="B590" t="s">
+        <v>60</v>
+      </c>
+      <c r="C590" t="s">
+        <v>31</v>
+      </c>
+      <c r="D590" t="s">
+        <v>27</v>
+      </c>
+      <c r="E590" s="2">
+        <v>3</v>
+      </c>
+      <c r="F590">
+        <v>395.88</v>
+      </c>
+      <c r="G590">
+        <v>58.19</v>
+      </c>
+      <c r="H590">
+        <v>117.64</v>
+      </c>
+      <c r="I590">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J590">
+        <v>100.59</v>
+      </c>
+      <c r="K590">
+        <v>9.9</v>
+      </c>
+      <c r="L590">
+        <v>715.5</v>
+      </c>
+      <c r="M590">
+        <v>715.5</v>
+      </c>
+      <c r="N590" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O590" t="s">
+        <v>52</v>
+      </c>
+      <c r="P590" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A591" t="s">
+        <v>16</v>
+      </c>
+      <c r="B591" t="s">
+        <v>60</v>
+      </c>
+      <c r="C591" t="s">
+        <v>36</v>
+      </c>
+      <c r="D591" t="s">
+        <v>22</v>
+      </c>
+      <c r="E591" s="2">
+        <v>1</v>
+      </c>
+      <c r="F591">
+        <v>392.91</v>
+      </c>
+      <c r="G591">
+        <v>58.19</v>
+      </c>
+      <c r="H591">
+        <v>264.32</v>
+      </c>
+      <c r="I591">
+        <v>71.28</v>
+      </c>
+      <c r="J591">
+        <v>27.83</v>
+      </c>
+      <c r="K591">
+        <v>9.9</v>
+      </c>
+      <c r="L591">
+        <v>824.43000000000006</v>
+      </c>
+      <c r="M591">
+        <v>824.43000000000006</v>
+      </c>
+      <c r="N591" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O591" t="s">
+        <v>52</v>
+      </c>
+      <c r="P591" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A592" t="s">
+        <v>16</v>
+      </c>
+      <c r="B592" t="s">
+        <v>60</v>
+      </c>
+      <c r="C592" t="s">
+        <v>36</v>
+      </c>
+      <c r="D592" t="s">
+        <v>24</v>
+      </c>
+      <c r="E592" s="2">
+        <v>1</v>
+      </c>
+      <c r="F592">
+        <v>392.91</v>
+      </c>
+      <c r="G592">
+        <v>58.19</v>
+      </c>
+      <c r="H592">
+        <v>248.62</v>
+      </c>
+      <c r="I592">
+        <v>71.28</v>
+      </c>
+      <c r="J592">
+        <v>27.83</v>
+      </c>
+      <c r="K592">
+        <v>9.9</v>
+      </c>
+      <c r="L592">
+        <v>808.73</v>
+      </c>
+      <c r="M592">
+        <v>808.73</v>
+      </c>
+      <c r="N592" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O592" t="s">
+        <v>52</v>
+      </c>
+      <c r="P592" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="593" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A593" t="s">
+        <v>16</v>
+      </c>
+      <c r="B593" t="s">
+        <v>60</v>
+      </c>
+      <c r="C593" t="s">
+        <v>36</v>
+      </c>
+      <c r="D593" t="s">
+        <v>23</v>
+      </c>
+      <c r="E593" s="2">
+        <v>1</v>
+      </c>
+      <c r="F593">
+        <v>392.91</v>
+      </c>
+      <c r="G593">
+        <v>58.19</v>
+      </c>
+      <c r="H593">
+        <v>232.91</v>
+      </c>
+      <c r="I593">
+        <v>71.28</v>
+      </c>
+      <c r="J593">
+        <v>27.83</v>
+      </c>
+      <c r="K593">
+        <v>9.9</v>
+      </c>
+      <c r="L593">
+        <v>793.02</v>
+      </c>
+      <c r="M593">
+        <v>793.02</v>
+      </c>
+      <c r="N593" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O593" t="s">
+        <v>52</v>
+      </c>
+      <c r="P593" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="594" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A594" t="s">
+        <v>16</v>
+      </c>
+      <c r="B594" t="s">
+        <v>60</v>
+      </c>
+      <c r="C594" t="s">
+        <v>36</v>
+      </c>
+      <c r="D594" t="s">
+        <v>27</v>
+      </c>
+      <c r="E594" s="2">
+        <v>2</v>
+      </c>
+      <c r="F594">
+        <v>392.91</v>
+      </c>
+      <c r="G594">
+        <v>58.19</v>
+      </c>
+      <c r="H594">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="I594">
+        <v>30.47</v>
+      </c>
+      <c r="J594">
+        <v>27.83</v>
+      </c>
+      <c r="K594">
+        <v>9.9</v>
+      </c>
+      <c r="L594">
+        <v>673.10000000000014</v>
+      </c>
+      <c r="M594">
+        <v>673.10000000000014</v>
+      </c>
+      <c r="N594" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O594" t="s">
+        <v>52</v>
+      </c>
+      <c r="P594" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="595" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A595" t="s">
+        <v>16</v>
+      </c>
+      <c r="B595" t="s">
+        <v>60</v>
+      </c>
+      <c r="C595" t="s">
+        <v>36</v>
+      </c>
+      <c r="D595" t="s">
+        <v>27</v>
+      </c>
+      <c r="E595" s="2">
+        <v>3</v>
+      </c>
+      <c r="F595">
+        <v>392.91</v>
+      </c>
+      <c r="G595">
+        <v>58.19</v>
+      </c>
+      <c r="H595">
+        <v>93.58</v>
+      </c>
+      <c r="I595">
+        <v>27.76</v>
+      </c>
+      <c r="J595">
+        <v>27.83</v>
+      </c>
+      <c r="K595">
+        <v>9.9</v>
+      </c>
+      <c r="L595">
+        <v>610.17000000000007</v>
+      </c>
+      <c r="M595">
+        <v>610.17000000000007</v>
+      </c>
+      <c r="N595" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2000000000019782E-3</v>
+      </c>
+      <c r="O595" t="s">
+        <v>52</v>
+      </c>
+      <c r="P595" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/rates/public/Diciembre 2024.xlsx
+++ b/rates/public/Diciembre 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\tarifas\rates\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6341F01-AEEA-48DC-8C4D-10E1AAAA72B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0315DD46-B5B2-4A87-97B4-D9A63A1ED9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3565" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="61">
   <si>
     <t>PERIODO</t>
   </si>
@@ -557,12 +568,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N590" sqref="N590"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H586" sqref="H586"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="8.7265625" style="2"/>
   </cols>
@@ -8835,6 +8846,9 @@
       <c r="B163" t="s">
         <v>18</v>
       </c>
+      <c r="C163" t="s">
+        <v>34</v>
+      </c>
       <c r="D163" t="s">
         <v>23</v>
       </c>
@@ -8883,6 +8897,9 @@
       <c r="B164" t="s">
         <v>18</v>
       </c>
+      <c r="C164" t="s">
+        <v>34</v>
+      </c>
       <c r="D164" t="s">
         <v>24</v>
       </c>
@@ -8931,6 +8948,9 @@
       <c r="B165" t="s">
         <v>18</v>
       </c>
+      <c r="C165" t="s">
+        <v>34</v>
+      </c>
       <c r="D165" t="s">
         <v>22</v>
       </c>
@@ -8979,6 +8999,9 @@
       <c r="B166" t="s">
         <v>18</v>
       </c>
+      <c r="C166" t="s">
+        <v>34</v>
+      </c>
       <c r="D166" t="s">
         <v>27</v>
       </c>
@@ -9027,6 +9050,9 @@
       <c r="B167" t="s">
         <v>18</v>
       </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
       <c r="D167" t="s">
         <v>27</v>
       </c>
@@ -15706,7 +15732,7 @@
         <v>19</v>
       </c>
       <c r="C298" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D298" t="s">
         <v>22</v>
@@ -15757,7 +15783,7 @@
         <v>19</v>
       </c>
       <c r="C299" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D299" t="s">
         <v>24</v>
@@ -15808,7 +15834,7 @@
         <v>19</v>
       </c>
       <c r="C300" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D300" t="s">
         <v>23</v>
@@ -15859,7 +15885,7 @@
         <v>19</v>
       </c>
       <c r="C301" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D301" t="s">
         <v>27</v>
@@ -15910,7 +15936,7 @@
         <v>19</v>
       </c>
       <c r="C302" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D302" t="s">
         <v>27</v>
@@ -15961,7 +15987,7 @@
         <v>19</v>
       </c>
       <c r="C303" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D303" t="s">
         <v>22</v>
@@ -16012,7 +16038,7 @@
         <v>19</v>
       </c>
       <c r="C304" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D304" t="s">
         <v>24</v>
@@ -16063,7 +16089,7 @@
         <v>19</v>
       </c>
       <c r="C305" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D305" t="s">
         <v>23</v>
@@ -16114,7 +16140,7 @@
         <v>19</v>
       </c>
       <c r="C306" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D306" t="s">
         <v>27</v>
@@ -16165,7 +16191,7 @@
         <v>19</v>
       </c>
       <c r="C307" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D307" t="s">
         <v>27</v>
@@ -16216,7 +16242,7 @@
         <v>19</v>
       </c>
       <c r="C308" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D308" t="s">
         <v>22</v>
@@ -16267,7 +16293,7 @@
         <v>19</v>
       </c>
       <c r="C309" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D309" t="s">
         <v>24</v>
@@ -16318,7 +16344,7 @@
         <v>19</v>
       </c>
       <c r="C310" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D310" t="s">
         <v>23</v>
@@ -16369,7 +16395,7 @@
         <v>19</v>
       </c>
       <c r="C311" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D311" t="s">
         <v>27</v>
@@ -16420,7 +16446,7 @@
         <v>19</v>
       </c>
       <c r="C312" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D312" t="s">
         <v>27</v>
@@ -16471,7 +16497,7 @@
         <v>19</v>
       </c>
       <c r="C313" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D313" t="s">
         <v>22</v>
@@ -16522,7 +16548,7 @@
         <v>19</v>
       </c>
       <c r="C314" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D314" t="s">
         <v>24</v>
@@ -16573,7 +16599,7 @@
         <v>19</v>
       </c>
       <c r="C315" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D315" t="s">
         <v>23</v>
@@ -16624,7 +16650,7 @@
         <v>19</v>
       </c>
       <c r="C316" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D316" t="s">
         <v>27</v>
@@ -16675,7 +16701,7 @@
         <v>19</v>
       </c>
       <c r="C317" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D317" t="s">
         <v>27</v>
@@ -16726,7 +16752,7 @@
         <v>19</v>
       </c>
       <c r="C318" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D318" t="s">
         <v>22</v>
@@ -16777,7 +16803,7 @@
         <v>19</v>
       </c>
       <c r="C319" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D319" t="s">
         <v>24</v>
@@ -16828,7 +16854,7 @@
         <v>19</v>
       </c>
       <c r="C320" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D320" t="s">
         <v>23</v>
@@ -16879,7 +16905,7 @@
         <v>19</v>
       </c>
       <c r="C321" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D321" t="s">
         <v>27</v>
@@ -16930,7 +16956,7 @@
         <v>19</v>
       </c>
       <c r="C322" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D322" t="s">
         <v>27</v>
@@ -16980,6 +17006,12 @@
       <c r="B323" t="s">
         <v>19</v>
       </c>
+      <c r="C323" t="s">
+        <v>36</v>
+      </c>
+      <c r="D323" t="s">
+        <v>22</v>
+      </c>
       <c r="E323" s="2">
         <v>1</v>
       </c>
@@ -17025,6 +17057,12 @@
       <c r="B324" t="s">
         <v>19</v>
       </c>
+      <c r="C324" t="s">
+        <v>36</v>
+      </c>
+      <c r="D324" t="s">
+        <v>24</v>
+      </c>
       <c r="E324" s="2">
         <v>1</v>
       </c>
@@ -17070,6 +17108,12 @@
       <c r="B325" t="s">
         <v>19</v>
       </c>
+      <c r="C325" t="s">
+        <v>36</v>
+      </c>
+      <c r="D325" t="s">
+        <v>23</v>
+      </c>
       <c r="E325" s="2">
         <v>1</v>
       </c>
@@ -17115,6 +17159,12 @@
       <c r="B326" t="s">
         <v>19</v>
       </c>
+      <c r="C326" t="s">
+        <v>36</v>
+      </c>
+      <c r="D326" t="s">
+        <v>27</v>
+      </c>
       <c r="E326" s="2">
         <v>2</v>
       </c>
@@ -17159,6 +17209,12 @@
       </c>
       <c r="B327" t="s">
         <v>19</v>
+      </c>
+      <c r="C327" t="s">
+        <v>36</v>
+      </c>
+      <c r="D327" t="s">
+        <v>27</v>
       </c>
       <c r="E327" s="2">
         <v>3</v>
